--- a/plantilla de calidad de software de Nilsen.xlsx
+++ b/plantilla de calidad de software de Nilsen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Desktop\Ingenieria de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAC10F1-7943-4418-A61A-5B8FE557D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76E1D8-E9E4-4AD8-B692-C0A5DC2640E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{437DB12C-B7EB-4E92-AF74-71EE09DA1FA6}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,17 +233,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6924B0D-A426-4415-A3E1-F4C4FC42EF86}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +615,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -628,7 +624,7 @@
       <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -639,7 +635,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -648,7 +644,7 @@
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -659,7 +655,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -668,7 +664,7 @@
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -679,7 +675,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -688,7 +684,7 @@
       <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -699,7 +695,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -708,7 +704,7 @@
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -719,7 +715,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -728,7 +724,7 @@
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -739,7 +735,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -748,7 +744,7 @@
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -759,7 +755,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -768,7 +764,7 @@
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -779,7 +775,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -788,7 +784,7 @@
       <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -799,7 +795,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -808,7 +804,7 @@
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="6" t="s">
